--- a/Informações/Modelo_Dados.xlsx
+++ b/Informações/Modelo_Dados.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.henrique\Documents\Senai\1_Semestre_2019\1s2019-t2\cases\sprint1-anexos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51418943800\Desktop\SPRINT 1\Projeto SP MEDICAL GROUP\SP-MEDICAL-GROUP\Informações\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Especialidades" sheetId="2" r:id="rId1"/>
-    <sheet name="Medicos" sheetId="3" r:id="rId2"/>
-    <sheet name="Prontuários" sheetId="4" r:id="rId3"/>
+    <sheet name="ESPECIALIDADES" sheetId="2" r:id="rId1"/>
+    <sheet name="MEDICOS" sheetId="3" r:id="rId2"/>
+    <sheet name="PRONTUARIO" sheetId="4" r:id="rId3"/>
     <sheet name="Consultas" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,13 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
-  <si>
-    <t>86.400.902/0001-30</t>
-  </si>
-  <si>
-    <t>SP Medical Group</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>Acupuntura</t>
   </si>
@@ -83,30 +77,12 @@
     <t>Psiquiatria</t>
   </si>
   <si>
-    <t xml:space="preserve">Clinica Possarle </t>
-  </si>
-  <si>
     <t>Crm</t>
   </si>
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>Especialidade</t>
-  </si>
-  <si>
-    <t>CNPJ</t>
-  </si>
-  <si>
-    <t>Razão Social</t>
-  </si>
-  <si>
-    <t>Endereço</t>
-  </si>
-  <si>
-    <t>Av. Barão Limeira, 532, São Paulo, SP</t>
-  </si>
-  <si>
     <t>Radioterapia</t>
   </si>
   <si>
@@ -116,15 +92,6 @@
     <t>Pediatria</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>ricardo.lemos@spmedicalgroup.com.br</t>
-  </si>
-  <si>
-    <t>roberto.possarle@spmedicalgroup.com.br</t>
-  </si>
-  <si>
     <t>Helena Strada</t>
   </si>
   <si>
@@ -149,15 +116,9 @@
     <t>Rua Estado de Israel 240, São Paulo, Estado de São Paulo, 04022-000</t>
   </si>
   <si>
-    <t>ligia@gmail.com</t>
-  </si>
-  <si>
     <t>Alexandre</t>
   </si>
   <si>
-    <t>alexandre@gmail.com</t>
-  </si>
-  <si>
     <t>11 98765-6543</t>
   </si>
   <si>
@@ -167,9 +128,6 @@
     <t>Fernando</t>
   </si>
   <si>
-    <t>fernando@gmail.com</t>
-  </si>
-  <si>
     <t>11 97208-4453</t>
   </si>
   <si>
@@ -179,9 +137,6 @@
     <t>Henrique</t>
   </si>
   <si>
-    <t>henrique@gmail.com</t>
-  </si>
-  <si>
     <t>11 3456-6543</t>
   </si>
   <si>
@@ -191,9 +146,6 @@
     <t>João</t>
   </si>
   <si>
-    <t>joao@hotmail.com</t>
-  </si>
-  <si>
     <t>11 7656-6377</t>
   </si>
   <si>
@@ -203,15 +155,9 @@
     <t>Bruno</t>
   </si>
   <si>
-    <t>bruno@gmail.com</t>
-  </si>
-  <si>
     <t>11 95436-8769</t>
   </si>
   <si>
-    <t>Alameda dos Arapanés, 945 - Indianópolis, São Paulo - SP, 04524-001</t>
-  </si>
-  <si>
     <t>Prontuario</t>
   </si>
   <si>
@@ -227,21 +173,6 @@
     <t>Mariana</t>
   </si>
   <si>
-    <t>mariana@outlook.com</t>
-  </si>
-  <si>
-    <t>R Sao Antonio, 232 - Vila Universal, Barueri - SP, 06407-140</t>
-  </si>
-  <si>
-    <t>Agendada</t>
-  </si>
-  <si>
-    <t>Realizada</t>
-  </si>
-  <si>
-    <t>Cancelada</t>
-  </si>
-  <si>
     <t>RG</t>
   </si>
   <si>
@@ -264,13 +195,61 @@
   </si>
   <si>
     <t>54566266-8</t>
+  </si>
+  <si>
+    <t>Id_Usuario</t>
+  </si>
+  <si>
+    <t>Id_Especialidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id_Clinica </t>
+  </si>
+  <si>
+    <t>11 95398-9412</t>
+  </si>
+  <si>
+    <t>Danilo</t>
+  </si>
+  <si>
+    <t>11 90234-2323</t>
+  </si>
+  <si>
+    <t>32342343-4</t>
+  </si>
+  <si>
+    <t>R lala de santos,333 - Vila Tupi,Morrão - RJ, 94922-149</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remédio em falta </t>
+  </si>
+  <si>
+    <t>dores nas costas</t>
+  </si>
+  <si>
+    <t>bateu as botas</t>
+  </si>
+  <si>
+    <t>forte dor de cabeça</t>
+  </si>
+  <si>
+    <t>tem 6 dedos</t>
+  </si>
+  <si>
+    <t>tem 4 dedos</t>
+  </si>
+  <si>
+    <t>dor de dente não passa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,21 +289,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF4A4A4A"/>
       <name val="Arial"/>
@@ -339,10 +303,9 @@
     <font>
       <u/>
       <sz val="10"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -362,29 +325,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -663,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,571 +634,577 @@
     <col min="1" max="1" width="35.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.21875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="19.6640625" style="2"/>
+    <col min="6" max="16384" width="19.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>54356</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>53452</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>65463</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="23.44140625" style="3"/>
+    <col min="1" max="5" width="23.44140625" style="3"/>
+    <col min="6" max="6" width="66.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="23.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6">
+        <v>30602</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="3">
+        <v>94839859000</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B3" s="6">
+        <v>37095</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3">
+        <v>73556944057</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6">
+        <v>28773</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="3">
+        <v>16839338002</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="I4" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B5" s="6">
+        <v>31333</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="3">
+        <v>14332654765</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="I5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="6">
+        <v>27633</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3">
+        <v>91305348010</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="8">
-        <v>30602</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="3">
-        <v>94839859000</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="I6" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B7" s="6">
+        <v>26379</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="8">
-        <v>37095</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="3">
-        <v>73556944057</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="8">
-        <v>28773</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="3">
+        <v>79799299004</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="3">
-        <v>16839338002</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="8">
-        <v>31333</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="3">
-        <v>14332654765</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="8">
-        <v>27633</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B8" s="6">
+        <v>43164</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="3">
-        <v>91305348010</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="8">
-        <v>26379</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="3">
-        <v>79799299004</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="E8" s="3">
+        <v>13771913039</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="8">
-        <v>43164</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="3">
-        <v>13771913039</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="B9" s="6">
+        <v>43499</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11331421421</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="11"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="9" customWidth="1"/>
     <col min="4" max="4" width="14.109375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>63</v>
+        <v>44</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9">
+        <v>43485.625</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="12">
-        <v>43485.625</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>43106.416666666664</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>43503.458333333336</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>43137.416666666664</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>43503.458854166667</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="12">
-        <v>43106.416666666664</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
+        <v>43504.625</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="12">
-        <v>43503.458333333336</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="12">
-        <v>43137.416666666664</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="12">
-        <v>43503.458854166667</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="12">
-        <v>43504.625</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="12">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
         <v>43505.458854166667</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>68</v>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
